--- a/biology/Botanique/Trichosanthes/Trichosanthes.xlsx
+++ b/biology/Botanique/Trichosanthes/Trichosanthes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Trichosanthes est un genre de plantes à fleurs dicotylédones de la famille des Cucurbitaceae, originaire d'Asie et d'Australasie, qui contient une centaine d'espèces acceptées. 
 Les jeunes pousses, les vrilles et les feuilles de certaines espèces, voire de toutes, peuvent être consommées comme  légumes verts, et au moins deux espèces, Trichosanthes cucumerina et Trichosanthes dioica, sont cultivées commercialement pour leurs fruits charnus consommés comme légumes, très populaires en Asie du Sud et du Sud-Est.
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Trichosanthes », est dérivé de deux termes grecs, τριχος (trichos), poil, et  ανθος (anthos), fleur, en  référence aux fleurs de certaines espèces de ce genre qui présentent des pétales aux marges fimbriées[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Trichosanthes », est dérivé de deux termes grecs, τριχος (trichos), poil, et  ανθος (anthos), fleur, en  référence aux fleurs de certaines espèces de ce genre qui présentent des pétales aux marges fimbriées.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Plants of the World online (POWO)                (26 février 2021)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Plants of the World online (POWO)                (26 février 2021) :
 Trichosanthes adhaerens W.J.de Wilde &amp; Duyfjes
 Trichosanthes anaimalaiensis Bedd.
 Trichosanthes auriculata Rugayah
